--- a/Trab2/tab.xlsx
+++ b/Trab2/tab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rccon\Documents\AC\Trab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0ED0F79-ACDF-4E0B-ACB4-357985BC7963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32B99F7-8CD6-487D-814C-306192B1D6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3834C8BD-D622-4D4C-B6F6-E3DC7FBB6148}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>Instrução</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>01</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -138,15 +147,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -154,13 +175,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,10 +226,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,271 +525,660 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38259CE-FA79-4487-BF58-7785FE93ABC8}">
-  <dimension ref="C3:N19"/>
+  <dimension ref="C3:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C4" t="s">
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="D5" s="1" t="s">
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C6" t="s">
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="D7" s="1" t="s">
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C8" t="s">
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="D9" s="1" t="s">
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C9" s="3"/>
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C10" t="s">
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="D11" s="1" t="s">
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C12" t="s">
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>100</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="D13" s="1" t="s">
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C13" s="3"/>
+      <c r="D13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C14" t="s">
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>101</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="D15" s="1" t="s">
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C15" s="3"/>
+      <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.45">
-      <c r="C16" t="s">
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>110</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="D17" s="1" t="s">
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>1</v>
+      </c>
+      <c r="N16" s="5">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="C18" t="s">
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1</v>
+      </c>
+      <c r="N17" s="5">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>111</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.45">
-      <c r="D19" s="1">
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1</v>
+      </c>
+      <c r="N18" s="5">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C19" s="3"/>
+      <c r="D19" s="4">
         <v>111</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1"/>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1</v>
+      </c>
+      <c r="N19" s="5">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -752,12 +1187,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ebfcc096-1200-41d2-9799-33f59eb0b01e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -938,17 +1372,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="ebfcc096-1200-41d2-9799-33f59eb0b01e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2798F14-DF8C-42C4-8297-011191D7020C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FE3755C-C083-408B-B5C4-B8465C48901A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="19d8dfd5-af43-4d00-9a98-0f6cb2654160"/>
+    <ds:schemaRef ds:uri="ebfcc096-1200-41d2-9799-33f59eb0b01e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -973,18 +1417,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FE3755C-C083-408B-B5C4-B8465C48901A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2798F14-DF8C-42C4-8297-011191D7020C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="19d8dfd5-af43-4d00-9a98-0f6cb2654160"/>
-    <ds:schemaRef ds:uri="ebfcc096-1200-41d2-9799-33f59eb0b01e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>